--- a/resultados_quiz_todos_intentos.xlsx
+++ b/resultados_quiz_todos_intentos.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,8 +423,8 @@
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
     <col width="13" customWidth="1" min="2" max="2"/>
-    <col width="789" customWidth="1" min="3" max="3"/>
-    <col width="22" customWidth="1" min="4" max="4"/>
+    <col width="1088" customWidth="1" min="3" max="3"/>
+    <col width="1846" customWidth="1" min="4" max="4"/>
     <col width="20" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
@@ -476,18 +476,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>"Según los principios de la andragogía de Malcolm Knowles, los factores como la experiencia, el contexto sociocultural, las emociones y las necesidades intrínsecas del adulto son cruciales para el aprendizaje. Analice cómo la interconexión de estos factores puede generar tanto oportunidades como barreras en la formación de docentes adultos. Proponga dos estrategias innovadoras que, como formador, aplicaría para aprovechar positivamente dos de estos factores en un entorno de aprendizaje digital, justificando su propuesta con ejemplos de su práctica o de los casos revisados en el curso."</t>
+          <t>¿Cómo las nuevas tecnologías podrían contribuir en nuestro rol de formador para desarrollar el enfoque por competencias profesionales? Para tu respuesta considera la perspectiva de un continuum de desarrollo profesional revisados en el curso, así como aspectos éticos del uso de la tecnología.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>dthdthdtyh</t>
+          <t>Las nuevas tecnologías representan una herramienta poderosa para fortalecer nuestro rol como formadores en el desarrollo de competencias profesionales. Permiten ofrecer experiencias de aprendizaje más personalizadas y adaptadas a las necesidades de cada docente, facilitando el análisis de evidencias y la identificación de fortalezas y áreas de mejora. Además, fomentan la colaboración entre pares mediante plataformas virtuales, comunidades de práctica y espacios de intercambio de experiencias, promoviendo la reflexión crítica y la construcción conjunta de conocimiento pedagógico.
+Desde la perspectiva del continuum de desarrollo profesional, las tecnologías posibilitan un acompañamiento continuo y coherente, articulando la formación inicial con la formación en servicio. Por ejemplo, mediante videograbaciones de clases, análisis de portafolios digitales, retroalimentación en línea y herramientas de autoevaluación, los docentes pueden observar, reflexionar y ajustar su práctica de manera constante.
+Es fundamental considerar los aspectos éticos del uso de la tecnología, como la protección de la privacidad de los docentes y estudiantes, el respeto por la propiedad intelectual, y el uso responsable de la información. La tecnología debe potenciar la reflexión crítica y la interacción humana, no reemplazar el acompañamiento personal y la construcción ética del conocimiento, asegurando que la innovación educativa contribuya al aprendizaje efectivo y al desarrollo profesional integral de los docentes. Respuesta guardada 3 4/12/25, 01:02:15 Intento finalizado Finalizado</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -499,18 +501,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Elabore una narración reflexiva sobre una estrategia innovadora que implementó como formador de docentes. Describa en detalle el contexto, la estrategia y los resultados obtenidos. Incluya una autoevaluación profunda sobre los desafíos encontrados, las decisiones pedagógicas tomadas, y cómo esta experiencia le permitió cuestionar sus propias creencias o transformar su práctica. Reflexione sobre cómo aplicó (o debió aplicar) los principios de la andragogía y las competencias del perfil del formador (como la gestión emocional o el fomento de la reflexión crítica) en esta situación. Finalmente, identifique una lección aprendida clave y proponga una mejora específica que implementaría en el futuro para potenciar aún más la autonomía y el aprendizaje significativo de los docentes."</t>
+          <t>Describe desde tu experiencia profesional las habilidades socioemocionales que debe poseer el formador de docentes para crear un entorno favorable para la reflexión tomando en consideración aquellas trabajadas en este curso 2 del Programa de formación de formadores. La descripción debe incluir la definición de cada habilidad revisada en el curso, así como la correspondiente cita y el ejemplo que se vincule con la implementación de esa habilidad.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>dhfhdt</t>
+          <t>Empatía
+- Definición: Capacidad de comprender y reconocer las emociones, perspectivas y necesidades de los docentes (Goleman, 2006).
+- Ejemplo: Durante un círculo de reflexión, percibo que un docente se siente inseguro al compartir su práctica; adapto mi retroalimentación para generar confianza y motivarlo a participar activamente.
+Escucha activa
+- Definición: Habilidad para prestar atención plena, mostrar interés genuino y comprender el mensaje completo antes de responder (Minedu, 2023).
+- Ejemplo: En sesiones de mentoría, escucho atentamente las dudas de los docentes sobre la implementación de estrategias por competencias, formulando preguntas que los ayuden a reflexionar sobre su práctica.
+Autoregulación emocional
+- Definición: Capacidad de manejar las propias emociones para mantener un clima positivo y constructivo en la interacción con los docentes (Salovey &amp; Mayer, 1990).
+- Ejemplo: Ante comentarios críticos durante la evaluación de una planificación, controlo mi reacción y utilizo la situación para guiar una discusión reflexiva sobre posibles mejoras.
+Comunicación asertiva
+- Definición: Capacidad de expresar ideas, necesidades y retroalimentación de manera clara, respetuosa y constructiva (Minedu, 2023).
+- Ejemplo: Proporciono retroalimentación precisa sobre las estrategias didácticas de los docentes, destacando fortalezas y ofreciendo sugerencias de mejora sin generar conflicto.
+Trabajo colaborativo
+- Definición: Capacidad de interactuar efectivamente con otros, compartiendo conocimientos y apoyando la construcción conjunta del aprendizaje (Minedu, 2023).
+- Ejemplo: Facilito dinámicas de co-planificación donde los docentes analizan y ajustan sus estrategias en conjunto, favoreciendo el aprendizaje colectivo y la reflexión compartida. Respuesta guardada 3 4/12/25, 01:02:15 Intento finalizado Finalizado</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -522,87 +538,21 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Imagine que usted es un formador de docentes que trabaja en una región con una rica diversidad sociocultural y lingüística. Describa un plan de acción detallado sobre cómo adaptaría sus estrategias, materiales y comunicación para asegurar que su formación sea culturalmente relevante, accesible y evite sesgos o exclusiones para todos los participantes. Justifique sus acciones basándose en los principios del factor de contexto sociocultural en el aprendizaje adulto y en la competencia del formador para gestionar una convivencia democrática e intercultural. "</t>
+          <t>Marcos es formador de docentes en un programa de acompañamiento en una institución educativa urbana del Perú. Durante una observación, nota que la docente Ana trabaja con sus estudiantes de 4.º grado usando una estrategia de lectura en voz alta que genera participación, pero también identifica que Ana omite oportunidades para retroalimentar a los estudiantes y no toma en cuenta algunas diferencias de ritmo de aprendizaje. Al finalizar la sesión, Ana le comenta a Marcos que se siente presionada por los resultados de las evaluaciones internas y teme recibir críticas que “solo la hagan sentirse peor”. Marcos debe decidir cómo brindar retroalimentación honesta, formativa y respetuosa, sin afectar la confianza construida y favoreciendo la reflexión sobre la práctica. ¿Qué decisiones éticas debería tomar Marcos para ofrecer una retroalimentación que respete la dignidad profesional de Ana, se base en evidencias, fomente la reflexión y el juicio pedagógico, y promueva la mejora continua según los principios del Perfil del Formador del Minedu? Explica y justifica tus decisiones.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>dthth</t>
+          <t>En esta situación, Marcos debe tomar decisiones éticas que garanticen que la retroalimentación sea honesta, respetuosa y formativa, protegiendo la dignidad profesional de Ana. Primero, debe basarse en evidencias concretas observadas durante la clase, como los momentos en que se aplicó la lectura en voz alta y las oportunidades de participación de los estudiantes. Esto asegura que los comentarios no se perciban como juicios personales, sino como información objetiva que guía la reflexión.
+Luego, Marcos debe generar un diálogo reflexivo, formulando preguntas abiertas que inviten a Ana a analizar sus propias decisiones pedagógicas, reconocer sus logros y explorar alternativas para atender la diversidad de ritmos de aprendizaje. Es importante resaltar fortalezas para reforzar la confianza, mientras se sugieren áreas de mejora de manera constructiva y con ejemplos concretos.
+Asimismo, Marcos debe considerar el impacto emocional de la retroalimentación, ofreciendo un espacio seguro donde la docente pueda expresar sus preocupaciones, aliviar la presión de evaluaciones externas y sentirse acompañada en su desarrollo profesional. La orientación debe estar alineada con los principios del Perfil del Formador del Minedu, promoviendo el juicio pedagógico, la ética profesional y la mejora continua de la práctica.
+Esta estrategia ética no solo ayuda a Ana a mejorar su práctica, sino que también fortalece la relación de confianza y colaboración, creando un entorno favorable para el aprendizaje profesional y la reflexión crítica de los docentes. Respuesta guardada 3 4/12/25, 01:02:15 Intento finalizado Finalizado</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>"Según los principios de la andragogía de Malcolm Knowles, los factores como la experiencia, el contexto sociocultural, las emociones y las necesidades intrínsecas del adulto son cruciales para el aprendizaje. Analice cómo la interconexión de estos factores puede generar tanto oportunidades como barreras en la formación de docentes adultos. Proponga dos estrategias innovadoras que, como formador, aplicaría para aprovechar positivamente dos de estos factores en un entorno de aprendizaje digital, justificando su propuesta con ejemplos de su práctica o de los casos revisados en el curso."</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>estrategia 1 xxxxx</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Elabore una narración reflexiva sobre una estrategia innovadora que implementó como formador de docentes. Describa en detalle el contexto, la estrategia y los resultados obtenidos. Incluya una autoevaluación profunda sobre los desafíos encontrados, las decisiones pedagógicas tomadas, y cómo esta experiencia le permitió cuestionar sus propias creencias o transformar su práctica. Reflexione sobre cómo aplicó (o debió aplicar) los principios de la andragogía y las competencias del perfil del formador (como la gestión emocional o el fomento de la reflexión crítica) en esta situación. Finalmente, identifique una lección aprendida clave y proponga una mejora específica que implementaría en el futuro para potenciar aún más la autonomía y el aprendizaje significativo de los docentes."</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Mi reflexion es abc</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
         <v>3</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Imagine que usted es un formador de docentes que trabaja en una región con una rica diversidad sociocultural y lingüística. Describa un plan de acción detallado sobre cómo adaptaría sus estrategias, materiales y comunicación para asegurar que su formación sea culturalmente relevante, accesible y evite sesgos o exclusiones para todos los participantes. Justifique sus acciones basándose en los principios del factor de contexto sociocultural en el aprendizaje adulto y en la competencia del formador para gestionar una convivencia democrática e intercultural. "</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Plan de accion</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
